--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cntf-Cntfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cntf-Cntfr.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.5748063333333334</v>
+        <v>0.03835166666666667</v>
       </c>
       <c r="H2">
-        <v>1.724419</v>
+        <v>0.115055</v>
       </c>
       <c r="I2">
-        <v>0.1785342934984892</v>
+        <v>0.0181239951898282</v>
       </c>
       <c r="J2">
-        <v>0.1785342934984892</v>
+        <v>0.0181239951898282</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.04154133333333333</v>
+        <v>0.01031333333333333</v>
       </c>
       <c r="N2">
-        <v>0.124624</v>
+        <v>0.03094</v>
       </c>
       <c r="O2">
-        <v>0.005088925111573409</v>
+        <v>0.001146416507271297</v>
       </c>
       <c r="P2">
-        <v>0.005088925111573409</v>
+        <v>0.001146416507271297</v>
       </c>
       <c r="Q2">
-        <v>0.02387822149511111</v>
+        <v>0.0003955335222222222</v>
       </c>
       <c r="R2">
-        <v>0.214903993456</v>
+        <v>0.0035598017</v>
       </c>
       <c r="S2">
-        <v>0.0009085476494614788</v>
+        <v>2.077764726332462E-05</v>
       </c>
       <c r="T2">
-        <v>0.0009085476494614787</v>
+        <v>2.077764726332462E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.5748063333333334</v>
+        <v>0.03835166666666667</v>
       </c>
       <c r="H3">
-        <v>1.724419</v>
+        <v>0.115055</v>
       </c>
       <c r="I3">
-        <v>0.1785342934984892</v>
+        <v>0.0181239951898282</v>
       </c>
       <c r="J3">
-        <v>0.1785342934984892</v>
+        <v>0.0181239951898282</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>22.410268</v>
       </c>
       <c r="O3">
-        <v>0.915106043637582</v>
+        <v>0.8303652607489888</v>
       </c>
       <c r="P3">
-        <v>0.9151060436375819</v>
+        <v>0.8303652607489886</v>
       </c>
       <c r="Q3">
-        <v>4.293854659365778</v>
+        <v>0.2864903760822222</v>
       </c>
       <c r="R3">
-        <v>38.64469193429201</v>
+        <v>2.57841338474</v>
       </c>
       <c r="S3">
-        <v>0.1633778109770333</v>
+        <v>0.01504953599161511</v>
       </c>
       <c r="T3">
-        <v>0.1633778109770333</v>
+        <v>0.01504953599161511</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.5748063333333334</v>
+        <v>0.03835166666666667</v>
       </c>
       <c r="H4">
-        <v>1.724419</v>
+        <v>0.115055</v>
       </c>
       <c r="I4">
-        <v>0.1785342934984892</v>
+        <v>0.0181239951898282</v>
       </c>
       <c r="J4">
-        <v>0.1785342934984892</v>
+        <v>0.0181239951898282</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6514553333333333</v>
+        <v>1.515746</v>
       </c>
       <c r="N4">
-        <v>1.954366</v>
+        <v>4.547238</v>
       </c>
       <c r="O4">
-        <v>0.07980503125084475</v>
+        <v>0.16848832274374</v>
       </c>
       <c r="P4">
-        <v>0.07980503125084475</v>
+        <v>0.16848832274374</v>
       </c>
       <c r="Q4">
-        <v>0.3744606514837778</v>
+        <v>0.05813138534333333</v>
       </c>
       <c r="R4">
-        <v>3.370145863354</v>
+        <v>0.52318246809</v>
       </c>
       <c r="S4">
-        <v>0.01424793487199442</v>
+        <v>0.003053681550949765</v>
       </c>
       <c r="T4">
-        <v>0.01424793487199442</v>
+        <v>0.003053681550949765</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2.366539</v>
       </c>
       <c r="I5">
-        <v>0.2450149113420932</v>
+        <v>0.3727881574250648</v>
       </c>
       <c r="J5">
-        <v>0.2450149113420932</v>
+        <v>0.3727881574250648</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.04154133333333333</v>
+        <v>0.01031333333333333</v>
       </c>
       <c r="N5">
-        <v>0.124624</v>
+        <v>0.03094</v>
       </c>
       <c r="O5">
-        <v>0.005088925111573409</v>
+        <v>0.001146416507271297</v>
       </c>
       <c r="P5">
-        <v>0.005088925111573409</v>
+        <v>0.001146416507271297</v>
       </c>
       <c r="Q5">
-        <v>0.03276972848177778</v>
+        <v>0.008135635184444443</v>
       </c>
       <c r="R5">
-        <v>0.294927556336</v>
+        <v>0.07322071665999999</v>
       </c>
       <c r="S5">
-        <v>0.001246862535038711</v>
+        <v>0.0004273704973873451</v>
       </c>
       <c r="T5">
-        <v>0.001246862535038711</v>
+        <v>0.000427370497387345</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.366539</v>
       </c>
       <c r="I6">
-        <v>0.2450149113420932</v>
+        <v>0.3727881574250648</v>
       </c>
       <c r="J6">
-        <v>0.2450149113420932</v>
+        <v>0.3727881574250648</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>22.410268</v>
       </c>
       <c r="O6">
-        <v>0.915106043637582</v>
+        <v>0.8303652607489888</v>
       </c>
       <c r="P6">
-        <v>0.9151060436375819</v>
+        <v>0.8303652607489886</v>
       </c>
       <c r="Q6">
         <v>5.892752580272445</v>
@@ -818,10 +818,10 @@
         <v>53.034773222452</v>
       </c>
       <c r="S6">
-        <v>0.2242146261504758</v>
+        <v>0.309550335544399</v>
       </c>
       <c r="T6">
-        <v>0.2242146261504758</v>
+        <v>0.3095503355443989</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.366539</v>
       </c>
       <c r="I7">
-        <v>0.2450149113420932</v>
+        <v>0.3727881574250648</v>
       </c>
       <c r="J7">
-        <v>0.2450149113420932</v>
+        <v>0.3727881574250648</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6514553333333333</v>
+        <v>1.515746</v>
       </c>
       <c r="N7">
-        <v>1.954366</v>
+        <v>4.547238</v>
       </c>
       <c r="O7">
-        <v>0.07980503125084475</v>
+        <v>0.16848832274374</v>
       </c>
       <c r="P7">
-        <v>0.07980503125084475</v>
+        <v>0.16848832274374</v>
       </c>
       <c r="Q7">
-        <v>0.5138981510304443</v>
+        <v>1.195690674364667</v>
       </c>
       <c r="R7">
-        <v>4.625083359273999</v>
+        <v>10.761216069282</v>
       </c>
       <c r="S7">
-        <v>0.01955342265657871</v>
+        <v>0.06281045138327848</v>
       </c>
       <c r="T7">
-        <v>0.01955342265657871</v>
+        <v>0.06281045138327848</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.855932333333334</v>
+        <v>1.288873333333333</v>
       </c>
       <c r="H8">
-        <v>5.567797000000001</v>
+        <v>3.86662</v>
       </c>
       <c r="I8">
-        <v>0.5764507951594176</v>
+        <v>0.6090878473851071</v>
       </c>
       <c r="J8">
-        <v>0.5764507951594176</v>
+        <v>0.609087847385107</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.04154133333333333</v>
+        <v>0.01031333333333333</v>
       </c>
       <c r="N8">
-        <v>0.124624</v>
+        <v>0.03094</v>
       </c>
       <c r="O8">
-        <v>0.005088925111573409</v>
+        <v>0.001146416507271297</v>
       </c>
       <c r="P8">
-        <v>0.005088925111573409</v>
+        <v>0.001146416507271297</v>
       </c>
       <c r="Q8">
-        <v>0.07709790370311112</v>
+        <v>0.01329258031111111</v>
       </c>
       <c r="R8">
-        <v>0.6938811333280001</v>
+        <v>0.1196332228</v>
       </c>
       <c r="S8">
-        <v>0.002933514927073219</v>
+        <v>0.0006982683626206271</v>
       </c>
       <c r="T8">
-        <v>0.002933514927073219</v>
+        <v>0.0006982683626206269</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.855932333333334</v>
+        <v>1.288873333333333</v>
       </c>
       <c r="H9">
-        <v>5.567797000000001</v>
+        <v>3.86662</v>
       </c>
       <c r="I9">
-        <v>0.5764507951594176</v>
+        <v>0.6090878473851071</v>
       </c>
       <c r="J9">
-        <v>0.5764507951594176</v>
+        <v>0.609087847385107</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>22.410268</v>
       </c>
       <c r="O9">
-        <v>0.915106043637582</v>
+        <v>0.8303652607489888</v>
       </c>
       <c r="P9">
-        <v>0.9151060436375819</v>
+        <v>0.8303652607489886</v>
       </c>
       <c r="Q9">
-        <v>13.86398032662178</v>
+        <v>9.627998939351112</v>
       </c>
       <c r="R9">
-        <v>124.775822939596</v>
+        <v>86.65199045416</v>
       </c>
       <c r="S9">
-        <v>0.5275136065100727</v>
+        <v>0.5057653892129748</v>
       </c>
       <c r="T9">
-        <v>0.5275136065100727</v>
+        <v>0.5057653892129745</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.855932333333334</v>
+        <v>1.288873333333333</v>
       </c>
       <c r="H10">
-        <v>5.567797000000001</v>
+        <v>3.86662</v>
       </c>
       <c r="I10">
-        <v>0.5764507951594176</v>
+        <v>0.6090878473851071</v>
       </c>
       <c r="J10">
-        <v>0.5764507951594176</v>
+        <v>0.609087847385107</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6514553333333333</v>
+        <v>1.515746</v>
       </c>
       <c r="N10">
-        <v>1.954366</v>
+        <v>4.547238</v>
       </c>
       <c r="O10">
-        <v>0.07980503125084475</v>
+        <v>0.16848832274374</v>
       </c>
       <c r="P10">
-        <v>0.07980503125084475</v>
+        <v>0.16848832274374</v>
       </c>
       <c r="Q10">
-        <v>1.209057016855778</v>
+        <v>1.953604599506667</v>
       </c>
       <c r="R10">
-        <v>10.881513151702</v>
+        <v>17.58244139556</v>
       </c>
       <c r="S10">
-        <v>0.04600367372227162</v>
+        <v>0.1026241898095118</v>
       </c>
       <c r="T10">
-        <v>0.04600367372227162</v>
+        <v>0.1026241898095118</v>
       </c>
     </row>
   </sheetData>
